--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376039.6593209954</v>
+        <v>372706.9744652318</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179438</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4902568.07848821</v>
+        <v>5118051.369601971</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.86547882798917</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.977552361264268</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>39.58387696184059</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="T4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -938,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1177,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1218,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
-        <v>34.86547882798917</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,10 +1572,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1689,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H15" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F17" t="n">
-        <v>16.93162886246722</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>38.87161743162454</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2044,22 +2046,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="20">
@@ -2123,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>43.73597310438675</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,46 +2250,46 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,68 +2317,68 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>46.01752716430177</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>26.97848197950846</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,7 +2806,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2843,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>241.0142888776591</v>
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>63.88882306452232</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2974,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>110.9174757594852</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3032,25 +3034,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>222.3396163656984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>151.520738835311</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>158.187398751566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,10 +3313,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="36">
@@ -3351,19 +3353,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>157.4580463775426</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.8888551418663</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3466,16 +3468,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3512,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G38" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3594,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>94.51965199844841</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>116.6930783966232</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3782,28 +3784,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>58.41012909865695</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.7322648969015</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>39.58387696184059</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>34.86547882798917</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>39.58387696184059</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>187.5617001183446</v>
       </c>
     </row>
     <row r="46">
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V2" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W2" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X2" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.38436553875449</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1178524655551</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>83.13413836268582</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>43.15042425981653</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>79.95943146291799</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.1178524655551</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>83.13413836268582</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S4" t="n">
-        <v>43.15042425981653</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="T4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="U4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.166710156947247</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43.15042425981653</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D5" t="n">
-        <v>3.166710156947247</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E5" t="n">
-        <v>3.166710156947247</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F5" t="n">
-        <v>3.166710156947247</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>118.3517937444931</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>118.3517937444931</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>118.3517937444931</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>118.3517937444931</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V5" t="n">
-        <v>118.3517937444931</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W5" t="n">
-        <v>118.3517937444931</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X5" t="n">
-        <v>78.36807964162378</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y5" t="n">
-        <v>78.36807964162378</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="C7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="D7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="E7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="F7" t="n">
-        <v>13.245045875396</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G7" t="n">
-        <v>13.245045875396</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H7" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>93.21247408113457</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>53.22875997826529</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.245045875396</v>
+        <v>93.48491238239833</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C8" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D8" t="n">
-        <v>28.29275017052741</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E8" t="n">
-        <v>28.29275017052741</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F8" t="n">
-        <v>28.29275017052741</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G8" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>28.29275017052741</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T8" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U8" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V8" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W8" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X8" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.29275017052741</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4472581485427</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4472581485427</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>118.3517937444931</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U11" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V11" t="n">
-        <v>38.38436553875449</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W11" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>78.36807964162378</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F12" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G12" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>3.166710156947247</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6285745504463</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I13" t="n">
-        <v>65.64486044757699</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M14" t="n">
-        <v>40.77139327069581</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N14" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>68.2764642733967</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U14" t="n">
-        <v>68.2764642733967</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V14" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W14" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X14" t="n">
-        <v>28.29275017052741</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D15" t="n">
-        <v>78.36807964162378</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E15" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F15" t="n">
-        <v>78.36807964162378</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G15" t="n">
-        <v>78.36807964162378</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.4472581485427</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R16" t="n">
-        <v>130.4472581485427</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E17" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.4370741486873</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>89.14698820604177</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>93.48491238239833</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>4.329008585976936</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
-        <v>4.329008585976936</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5771,22 +5773,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
         <v>19.28114311021272</v>
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>552.3930418464681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,19 +5834,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
         <v>19.28114311021272</v>
@@ -5935,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>816.40527539251</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.181657128899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>353.0295488971563</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>109.5807722530562</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>109.5807722530562</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y24" t="n">
-        <v>109.5807722530562</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="25">
@@ -6175,10 +6177,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W26" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X26" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U26" t="n">
+      <c r="Y26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="V26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X26" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
+        <v>234.810827406191</v>
+      </c>
+      <c r="N27" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N27" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="28">
@@ -6418,7 +6420,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6518,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>83.81530782185143</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
         <v>19.28114311021272</v>
@@ -6646,25 +6648,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E32" t="n">
-        <v>274.7999090013961</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F32" t="n">
-        <v>274.7999090013961</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G32" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H32" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>742.8341567219593</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X32" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y32" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352.9716273967953</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="C33" t="n">
-        <v>178.5185981156682</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="D33" t="n">
-        <v>178.5185981156682</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6792,7 +6794,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W33" t="n">
-        <v>720.6083788665362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X33" t="n">
-        <v>512.7568786610034</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y33" t="n">
-        <v>352.9716273967953</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y35" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>487.2836868729568</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="C36" t="n">
-        <v>487.2836868729568</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="D36" t="n">
-        <v>338.3492772117056</v>
+        <v>178.3296748047002</v>
       </c>
       <c r="E36" t="n">
-        <v>179.1118222062501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>179.1118222062501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>40.38099678886556</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>40.38099678886556</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7023,43 +7025,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>487.2836868729568</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>487.2836868729568</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="X36" t="n">
-        <v>487.2836868729568</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="Y36" t="n">
-        <v>487.2836868729568</v>
+        <v>327.2640844659515</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>358.0940480307835</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>358.0940480307835</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>358.0940480307835</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>358.0940480307835</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>358.0940480307835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>358.0940480307835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>358.0940480307835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>358.0940480307835</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>358.0940480307835</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>358.0940480307835</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>253.4863644856259</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>114.7555390682414</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>588.4532163200711</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V39" t="n">
-        <v>588.4532163200711</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W39" t="n">
-        <v>345.004439675971</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X39" t="n">
-        <v>137.1529394704382</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>253.4863644856259</v>
       </c>
     </row>
     <row r="40">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>496.626357174339</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>794.4810264257815</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>794.4810264257815</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>794.4810264257815</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U41" t="n">
-        <v>794.4810264257815</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V41" t="n">
-        <v>735.4808960230977</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X41" t="n">
-        <v>496.626357174339</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>831.9929991977493</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>657.5399699166223</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>508.6055602553711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>508.6055602553711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>362.0710022822561</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>223.3401768648716</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>109.9710412724509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>842.4406124543449</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>842.4406124543449</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W42" t="n">
-        <v>945.8639738410842</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X42" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>40.77139327069581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>118.3517937444931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>78.36807964162378</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>38.38436553875449</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V44" t="n">
-        <v>3.166710156947247</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>432.9682111954345</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>40.77139327069581</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>79.95943146291799</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>118.3517937444931</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>118.3517937444931</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>78.36807964162378</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>38.38436553875449</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>3.166710156947247</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X45" t="n">
-        <v>3.166710156947247</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>601.1835482155025</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>93.21247408113457</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8547,10 +8549,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8693,19 +8695,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,19 +8774,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8933,16 +8935,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,16 +9014,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>176.3234617176304</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>178.1065797935588</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10440,10 +10442,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10685,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10917,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>168.3469355692898</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>176.5389081776</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22547,16 +22549,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>330.4074129430184</v>
+        <v>321.1407193917789</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22598,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22607,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.2037335653947</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22729,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.18449089043011</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>184.4327210751317</v>
+        <v>204.0849077710508</v>
       </c>
       <c r="T4" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>347.8683628354914</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>386.4218192980553</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22826,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22866,25 +22868,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22951,13 +22953,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>144.630597575249</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,13 +22986,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>315.8114241890584</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>197.5503993115741</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23065,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23106,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23306,22 +23308,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>288.1683815082943</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
-        <v>314.3754898894238</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>106.1975949617593</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23431,13 +23433,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>343.862224231856</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23501,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>288.1683815082943</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>361.3631590426092</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23577,25 +23579,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>108.5734481330142</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H15" t="n">
-        <v>78.11655673476514</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F17" t="n">
-        <v>389.9444168792442</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>64.7505686791048</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>187.0697646493503</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23932,22 +23934,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="20">
@@ -24011,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>246.9027416247241</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>103.709092460252</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,19 +24101,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24303,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>154.1472015305199</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24415,13 +24417,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24488,28 +24490,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>139.5547016703589</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>70.35882518776063</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24658,10 +24660,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,7 +24694,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>145.2236497783945</v>
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>141.8841621389552</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24862,7 +24864,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>113.0991222774871</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24920,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>132.3434252549845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,10 +24976,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,16 +24998,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6.124341620089979</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25047,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>47.49529702573832</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,13 +25162,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>213.0080510862378</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25199,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25211,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="36">
@@ -25239,19 +25241,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.1870340778583284</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>68.50777770954878</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25354,16 +25356,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25400,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G38" t="n">
-        <v>320.892250521429</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25436,28 +25438,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25482,10 +25484,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>17.71579223804805</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>88.98961738068117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>145.4643766119907</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,28 +25672,28 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>269.3421293714779</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>53.80091875296581</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,19 +25760,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25910,22 +25912,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>292.8867796421457</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>132.0992941419972</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>216.8295043329304</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>18.12099565895977</v>
       </c>
     </row>
     <row r="46">
@@ -26077,19 +26079,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.6071009908305</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355301.6422752918</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355301.6422752916</v>
+        <v>358695.7022238466</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355301.6422752917</v>
+        <v>358695.7022238467</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358695.7022238466</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.6524292128</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498660.6524292128</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498660.652429213</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498660.6524292129</v>
+        <v>498660.652429213</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495427.2356367889</v>
+        <v>498660.6524292129</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355301.6422752916</v>
+        <v>498660.652429213</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="C2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="D2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="E2" t="n">
-        <v>76974.81962490581</v>
+        <v>77709.45347827919</v>
       </c>
       <c r="F2" t="n">
-        <v>76974.81962490579</v>
+        <v>77709.45347827917</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827919</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
         <v>108004.437145366</v>
@@ -26341,7 +26343,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
@@ -26350,10 +26352,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
-        <v>107304.5740098336</v>
+        <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>76974.81962490579</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="C4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="D4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="E4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="F4" t="n">
-        <v>17830.0749817395</v>
+        <v>18006.507495794</v>
       </c>
       <c r="G4" t="n">
-        <v>18006.507495794</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
         <v>25282.26821261927</v>
@@ -26454,10 +26456,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>25114.1863689511</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>17830.0749817395</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9844.977324803476</v>
+        <v>8602.403897583848</v>
       </c>
       <c r="C6" t="n">
-        <v>23110.44492388638</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="D6" t="n">
-        <v>23110.44492388639</v>
+        <v>23392.10990182807</v>
       </c>
       <c r="E6" t="n">
-        <v>56738.0449238864</v>
+        <v>57019.70990182809</v>
       </c>
       <c r="F6" t="n">
-        <v>56738.04492388638</v>
+        <v>57019.70990182807</v>
       </c>
       <c r="G6" t="n">
-        <v>55773.09035235331</v>
+        <v>14106.06526851277</v>
       </c>
       <c r="H6" t="n">
-        <v>14947.93319866007</v>
+        <v>68068.50016898508</v>
       </c>
       <c r="I6" t="n">
-        <v>68068.50016898508</v>
+        <v>68068.50016898511</v>
       </c>
       <c r="J6" t="n">
-        <v>57711.61626518128</v>
+        <v>56521.58205899422</v>
       </c>
       <c r="K6" t="n">
         <v>68068.50016898509</v>
       </c>
       <c r="L6" t="n">
+        <v>68068.50016898512</v>
+      </c>
+      <c r="M6" t="n">
+        <v>68068.50016898509</v>
+      </c>
+      <c r="N6" t="n">
         <v>68068.50016898511</v>
       </c>
-      <c r="M6" t="n">
-        <v>68068.50016898511</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>20688.62195152129</v>
+      </c>
+      <c r="P6" t="n">
         <v>68068.50016898509</v>
-      </c>
-      <c r="O6" t="n">
-        <v>67813.25523849804</v>
-      </c>
-      <c r="P6" t="n">
-        <v>56738.04492388638</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35413,19 +35415,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35653,16 +35655,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>44.13217237922859</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37160,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37637,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>34.37252815495957</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>37.98452839772582</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
